--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E452E5B9-126A-4E30-8AB6-45F85D180326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972FEFE3-C99A-4F8D-83D3-D7BD0D744B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="browser cache" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>mục public</t>
+  </si>
+  <si>
+    <t>Ctrl F5 (or Ctrl + F5) reloads the current page including the browser cache</t>
+  </si>
+  <si>
+    <t>delete cache</t>
   </si>
 </sst>
 </file>
@@ -449,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -479,4 +486,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C979D8D9-5A43-44DD-83F8-870E44A2DD09}">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972FEFE3-C99A-4F8D-83D3-D7BD0D744B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA064D2-2A54-4B4C-AE91-99B0A56BDAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="browser cache" sheetId="2" r:id="rId2"/>
+    <sheet name="namespace" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -180,6 +181,143 @@
         <a:xfrm>
           <a:off x="609600" y="2857500"/>
           <a:ext cx="2228571" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>446781</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404CD8A0-8597-4670-B429-7957D804BEC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2476500"/>
+          <a:ext cx="7152381" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>275048</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30B8F6B-8D17-43D2-8DD0-6FD4B813C1BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4762500"/>
+          <a:ext cx="9419048" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123505</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A757D4-0296-4772-B63E-735B041D2EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="2561905" cy="2152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -456,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C979D8D9-5A43-44DD-83F8-870E44A2DD09}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,4 +649,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5FC994-97F6-4B3E-AEA5-566253E53F01}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA064D2-2A54-4B4C-AE91-99B0A56BDAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D54CD9-385F-4AA7-ADC8-5D6EFDF07F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="browser cache" sheetId="2" r:id="rId2"/>
     <sheet name="namespace" sheetId="3" r:id="rId3"/>
+    <sheet name="Error" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -45,6 +46,24 @@
   </si>
   <si>
     <t>delete cache</t>
+  </si>
+  <si>
+    <t>vendor\laravel\framework\src\Illuminate\Foundation\Exceptions\views</t>
+  </si>
+  <si>
+    <t>resources\views\errors\404.blade.php</t>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>list code</t>
+  </si>
+  <si>
+    <t>Customize 404</t>
   </si>
 </sst>
 </file>
@@ -318,6 +337,187 @@
         <a:xfrm>
           <a:off x="609600" y="190500"/>
           <a:ext cx="2561905" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237790</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61F4639-921B-5ED7-9481-B2B6E7A0F7C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2676190" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170057</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF6386F-65C1-E55C-4396-ADEE8CAD9437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3810000"/>
+          <a:ext cx="11142857" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>94400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8ECBA3-FD0F-2850-ABF1-EC849C3899A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7048500"/>
+          <a:ext cx="6800000" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>49971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B3155A-E32E-8C73-DA4D-BFD7AC847D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="10668000"/>
+          <a:ext cx="10820400" cy="5193471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5FC994-97F6-4B3E-AEA5-566253E53F01}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -664,4 +864,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0198D1-D847-40B9-9135-F02444F8FDF9}">
+  <dimension ref="A2:B58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D54CD9-385F-4AA7-ADC8-5D6EFDF07F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738E539-ED34-4010-8FF4-6D2A07D3B5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="browser cache" sheetId="2" r:id="rId2"/>
     <sheet name="namespace" sheetId="3" r:id="rId3"/>
     <sheet name="Error" sheetId="4" r:id="rId4"/>
+    <sheet name="md5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>Customize 404</t>
+  </si>
+  <si>
+    <t>echo md5('123456');</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
   </si>
 </sst>
 </file>
@@ -870,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0198D1-D847-40B9-9135-F02444F8FDF9}">
   <dimension ref="A2:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -910,4 +917,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A29EFC3-F749-4C54-ABF6-6A60F031203E}">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738E539-ED34-4010-8FF4-6D2A07D3B5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE019A-1997-416A-8DDD-360682407A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="namespace" sheetId="3" r:id="rId3"/>
     <sheet name="Error" sheetId="4" r:id="rId4"/>
     <sheet name="md5" sheetId="5" r:id="rId5"/>
+    <sheet name="login" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -71,6 +72,18 @@
   </si>
   <si>
     <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>config\auth.php</t>
+  </si>
+  <si>
+    <t>app\User.php</t>
+  </si>
+  <si>
+    <t>resources\lang\en\notify.php</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\News\AuthController.php</t>
   </si>
 </sst>
 </file>
@@ -525,6 +538,319 @@
         <a:xfrm>
           <a:off x="609601" y="10668000"/>
           <a:ext cx="10820400" cy="5193471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246857</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4E8326-64D5-4B43-ABD6-151A52A1B763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6342857" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142095</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7F1A07-6F64-4557-B635-32B6710F543F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2286000"/>
+          <a:ext cx="6238095" cy="2771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389562</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A4DF2B-F86B-4220-A41F-C15019C57C2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9144000"/>
+          <a:ext cx="7704762" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465448</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EFDB6C-5848-4C13-B151-E82C920B506E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="10219048" cy="4047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>189409</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>46952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56B031E-F533-480A-B2AA-AAC7731EB1D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15621000"/>
+          <a:ext cx="8723809" cy="5380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66057</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5173AAB-6137-4796-B2D4-227DFB5AF1DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21526500"/>
+          <a:ext cx="4942857" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>570438</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA636067-83E7-4706-8B0D-98059CAD31C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="8495238" cy="3133333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A29EFC3-F749-4C54-ABF6-6A60F031203E}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,4 +1268,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C471BB-1C7B-4E3F-946D-10C5B606952A}">
+  <dimension ref="A2:B113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE019A-1997-416A-8DDD-360682407A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306F51CD-C10C-4595-B7F6-753ED5F5B1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Error" sheetId="4" r:id="rId4"/>
     <sheet name="md5" sheetId="5" r:id="rId5"/>
     <sheet name="login" sheetId="7" r:id="rId6"/>
+    <sheet name="MethodNotAllowedHttpException" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -84,6 +85,21 @@
   </si>
   <si>
     <t>app\Http\Controllers\News\AuthController.php</t>
+  </si>
+  <si>
+    <t>routes\web.php</t>
+  </si>
+  <si>
+    <t>Access to post method</t>
+  </si>
+  <si>
+    <t>MethodNotAllowedHttpException redirect to 404</t>
+  </si>
+  <si>
+    <t>app\Exceptions\Handler.php</t>
+  </si>
+  <si>
+    <t>Access http://proj_news.xyz/blog/postLogin</t>
   </si>
 </sst>
 </file>
@@ -851,6 +867,275 @@
         <a:xfrm>
           <a:off x="609600" y="5524500"/>
           <a:ext cx="8495238" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8152</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6ED6A9-FB15-422A-8748-4CCF213ADC17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10980952" cy="2552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>131537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA97A36-9599-4FDF-9F33-257C455F48D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="11401425" cy="5275037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151390</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233B302D-71EB-472F-A1D9-F6AB17B6CB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9144000"/>
+          <a:ext cx="8076190" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>103848</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152630E7-0DBE-4CA2-9D45-7EC0EDA4DB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="7419048" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151162</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>113905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02084565-658D-4EFB-8511-9A167A3C9ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14668500"/>
+          <a:ext cx="9904762" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27733</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>161524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B946FB9A-CC91-41E8-B142-41A0FEC1CC6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18288000"/>
+          <a:ext cx="6733333" cy="3209524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1274,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C471BB-1C7B-4E3F-946D-10C5B606952A}">
   <dimension ref="A2:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -1314,4 +1599,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F9727C-E6BE-422E-A907-CE7AAF28862B}">
+  <dimension ref="A2:B96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="P112" sqref="P112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306F51CD-C10C-4595-B7F6-753ED5F5B1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F918DB-51A5-4BB1-BC07-BAFB7C1D7313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="md5" sheetId="5" r:id="rId5"/>
     <sheet name="login" sheetId="7" r:id="rId6"/>
     <sheet name="MethodNotAllowedHttpException" sheetId="8" r:id="rId7"/>
+    <sheet name="check login" sheetId="9" r:id="rId8"/>
+    <sheet name="Github Fixed using Token" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -100,6 +102,21 @@
   </si>
   <si>
     <t>Access http://proj_news.xyz/blog/postLogin</t>
+  </si>
+  <si>
+    <t>view code app\Http\Kernel.php</t>
+  </si>
+  <si>
+    <t>app\Http\Middleware\RedirectIfAuthenticated.php</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Access login page after logged in</t>
+  </si>
+  <si>
+    <t>paste Personal access tokens</t>
   </si>
 </sst>
 </file>
@@ -1136,6 +1153,852 @@
         <a:xfrm>
           <a:off x="609600" y="18288000"/>
           <a:ext cx="6733333" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A449CA64-FE7A-4313-B7F7-600096FCD0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9200000" cy="2380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>11547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F64B753D-50F6-4277-9C58-B8D8F331ADCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="6667501"/>
+          <a:ext cx="11277600" cy="2678546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27428</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86B7122-2371-480A-BE53-2057FCCC21FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9715500"/>
+          <a:ext cx="9171428" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>465600</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>113643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58910BA0-DBDB-4F60-AD3D-273887AD8CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12573000"/>
+          <a:ext cx="9000000" cy="5257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E096DEF-31A6-4ADD-9972-8390CAB20EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18288001"/>
+          <a:ext cx="11430000" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>148915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ECA612A-3A14-4D73-A445-3E54BE479D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24384000"/>
+          <a:ext cx="11334750" cy="6054415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446628</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298F6BA1-1951-45BF-AC67-D1FE154FC043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3048000"/>
+          <a:ext cx="8371428" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285486</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168E620D-683E-359C-E6B7-5BDC1CF9EF45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="2114286" cy="5038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8457</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>132524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751E33E8-B8EF-B1C6-C5FF-FBFD44B46F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5715000"/>
+          <a:ext cx="8542857" cy="6609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>34855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F751C717-29B8-9DE0-359A-CE1141A90708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="12573001"/>
+          <a:ext cx="10839450" cy="4225854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3832E440-6EDA-01B8-D8D1-EE89883A0711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17145000"/>
+          <a:ext cx="10868025" cy="4457518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475124</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>94714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3164BC92-53DE-44F5-325E-514912C75F3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21907500"/>
+          <a:ext cx="9009524" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>380038</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>46881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC21C01-B72D-C419-B42E-F909D34BE1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26479500"/>
+          <a:ext cx="7695238" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>65752</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>94524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BAEDEC-3EFD-4748-FB6F-1F4BD566182E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32766000"/>
+          <a:ext cx="7380952" cy="5809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389562</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>18690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C2E0B3-9BD1-4424-F73B-7CD8348FED5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="38862000"/>
+          <a:ext cx="7704762" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>122819</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>123309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C1716F-731E-E249-42B3-4CE54493C896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="41910000"/>
+          <a:ext cx="8047619" cy="4123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180495</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>113809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B99463-EC6F-E167-0034-1266DA9B005D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="46291500"/>
+          <a:ext cx="3838095" cy="3923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47238</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>161714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05282D51-FC7D-A552-BF60-46D68BD70DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="50482500"/>
+          <a:ext cx="3095238" cy="1685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37714</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>9310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDE73D5-DE73-BBC4-EFC7-CA140ECAB62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="52387500"/>
+          <a:ext cx="3085714" cy="1723810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F9727C-E6BE-422E-A907-CE7AAF28862B}">
   <dimension ref="A2:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="P112" sqref="P112"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="S103" sqref="S103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,4 +2513,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E0376-3DDD-4EA9-90E5-7634CE22034F}">
+  <dimension ref="A2:B128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="R90" sqref="R90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E3908-EEEE-4959-B174-2154B06BEA03}">
+  <dimension ref="H255:I281"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="L274" sqref="L274"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I255" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H281" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F918DB-51A5-4BB1-BC07-BAFB7C1D7313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE59FD3A-1E8D-4DEF-BF18-5442891FED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="MethodNotAllowedHttpException" sheetId="8" r:id="rId7"/>
     <sheet name="check login" sheetId="9" r:id="rId8"/>
     <sheet name="Github Fixed using Token" sheetId="10" r:id="rId9"/>
+    <sheet name="dd vs print_r function" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -117,6 +118,18 @@
   </si>
   <si>
     <t>paste Personal access tokens</t>
+  </si>
+  <si>
+    <t>dd($data)</t>
+  </si>
+  <si>
+    <t>echo "&lt;pre&gt;";</t>
+  </si>
+  <si>
+    <t>print_r($data);</t>
+  </si>
+  <si>
+    <t>echo "&lt;/pre&gt;";</t>
   </si>
 </sst>
 </file>
@@ -1999,6 +2012,99 @@
         <a:xfrm>
           <a:off x="609600" y="52387500"/>
           <a:ext cx="3085714" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>48074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748076D3-44A7-E9A4-2F4F-671F63DABD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11258550" cy="1762574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>8228</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>8809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BA04309-2693-4B74-AB07-8B9EC0308360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2857500"/>
+          <a:ext cx="10371428" cy="5723809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,6 +2413,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917D685D-3170-4E8C-994A-304163415E66}">
+  <dimension ref="A2:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C979D8D9-5A43-44DD-83F8-870E44A2DD09}">
   <dimension ref="A2:B3"/>
@@ -2570,7 +2712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2E3908-EEEE-4959-B174-2154B06BEA03}">
   <dimension ref="H255:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+    <sheetView topLeftCell="A262" workbookViewId="0">
       <selection activeCell="L274" sqref="L274"/>
     </sheetView>
   </sheetViews>

--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE59FD3A-1E8D-4DEF-BF18-5442891FED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BC3951-F58C-4936-AE60-57CE62E9B6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="check login" sheetId="9" r:id="rId8"/>
     <sheet name="Github Fixed using Token" sheetId="10" r:id="rId9"/>
     <sheet name="dd vs print_r function" sheetId="11" r:id="rId10"/>
+    <sheet name="LF replace by CRLF off" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2417,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917D685D-3170-4E8C-994A-304163415E66}">
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2446,6 +2447,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6319D3D3-9E5F-42E8-A56E-5FFD7E4E20F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BC3951-F58C-4936-AE60-57CE62E9B6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C26D115-D1C6-4CA0-A038-F3AC944E6451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>echo "&lt;/pre&gt;";</t>
+  </si>
+  <si>
+    <t>git config core.autocrlf false</t>
+  </si>
+  <si>
+    <t>Check config</t>
+  </si>
+  <si>
+    <t>git config core.autocrlf</t>
+  </si>
+  <si>
+    <t>Config off</t>
   </si>
 </sst>
 </file>
@@ -2106,6 +2118,143 @@
         <a:xfrm>
           <a:off x="609600" y="2857500"/>
           <a:ext cx="10371428" cy="5723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27657</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D10235F-F6DA-8648-6090-B69197B149CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="7342857" cy="1876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18438</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6264CC-5542-554B-6921-65FD178A4477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2476500"/>
+          <a:ext cx="4895238" cy="1133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542324</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFB31C2-A276-FEFF-0F56-A2981C54CBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4191000"/>
+          <a:ext cx="4809524" cy="476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2452,15 +2601,37 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6319D3D3-9E5F-42E8-A56E-5FFD7E4E20F6}">
-  <dimension ref="A1"/>
+  <dimension ref="A12:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C26D115-D1C6-4CA0-A038-F3AC944E6451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355AE627-089A-4D7C-9D39-8F8461B5FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>echo "&lt;/pre&gt;";</t>
   </si>
   <si>
-    <t>git config core.autocrlf false</t>
-  </si>
-  <si>
     <t>Check config</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Config off</t>
+  </si>
+  <si>
+    <t>git config --global core.autocrlf false</t>
   </si>
 </sst>
 </file>
@@ -2179,50 +2179,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>18438</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6264CC-5542-554B-6921-65FD178A4477}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="2476500"/>
-          <a:ext cx="4895238" cy="1133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2246,7 +2202,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2255,6 +2211,50 @@
         <a:xfrm>
           <a:off x="609600" y="4191000"/>
           <a:ext cx="4809524" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104152</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37944EA-4223-66CF-8CE6-C40F57755906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2476500"/>
+          <a:ext cx="4980952" cy="1152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,30 +2603,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6319D3D3-9E5F-42E8-A56E-5FFD7E4E20F6}">
   <dimension ref="A12:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/me-docs/sum.xlsx
+++ b/me-docs/sum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355AE627-089A-4D7C-9D39-8F8461B5FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D681E6FC-8182-43B5-8E6D-513039B43147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Github Fixed using Token" sheetId="10" r:id="rId9"/>
     <sheet name="dd vs print_r function" sheetId="11" r:id="rId10"/>
     <sheet name="LF replace by CRLF off" sheetId="12" r:id="rId11"/>
+    <sheet name="repos" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>config\zvn.php</t>
   </si>
@@ -143,6 +144,12 @@
   </si>
   <si>
     <t>git config --global core.autocrlf false</t>
+  </si>
+  <si>
+    <t>ls -la /etc/yum.repos.d/</t>
+  </si>
+  <si>
+    <t>repos</t>
   </si>
 </sst>
 </file>
@@ -279,6 +286,55 @@
         <a:xfrm>
           <a:off x="609600" y="2857500"/>
           <a:ext cx="2228571" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56305</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D86F92-3334-B343-DF10-A9ED262343CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="6761905" cy="3276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,7 +2659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6319D3D3-9E5F-42E8-A56E-5FFD7E4E20F6}">
   <dimension ref="A12:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -2627,6 +2683,32 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD061E37-B27D-41DF-A52F-5617626994B1}">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
